--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Players" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matches" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Shooters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Injuries" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,8 +22,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +63,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -649,8 +651,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>46023.00192389401</v>
+      <c r="G2" s="3" t="n">
+        <v>46023.00192388889</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -766,8 +768,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>46023.00288889266</v>
+      <c r="G3" s="3" t="n">
+        <v>46023.00288888889</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -883,8 +885,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>46023.00362778021</v>
+      <c r="G4" s="3" t="n">
+        <v>46023.00362777778</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1000,8 +1002,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>46023.00631297848</v>
+      <c r="G5" s="3" t="n">
+        <v>46023.00631297454</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1117,8 +1119,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>46023.00907441222</v>
+      <c r="G6" s="3" t="n">
+        <v>46023.00907440973</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1234,8 +1236,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>46023.00921837942</v>
+      <c r="G7" s="3" t="n">
+        <v>46023.00921837963</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1351,8 +1353,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>46023.01032063219</v>
+      <c r="G8" s="3" t="n">
+        <v>46023.01032063657</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1468,8 +1470,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>46023.01177160446</v>
+      <c r="G9" s="3" t="n">
+        <v>46023.0117716088</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1585,8 +1587,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>46023.01325434552</v>
+      <c r="G10" s="3" t="n">
+        <v>46023.01325434028</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1702,8 +1704,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>46023.01591727155</v>
+      <c r="G11" s="3" t="n">
+        <v>46023.01591726852</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1819,8 +1821,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>46023.01804057044</v>
+      <c r="G12" s="3" t="n">
+        <v>46023.01804056713</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1936,8 +1938,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>46023.01968237348</v>
+      <c r="G13" s="3" t="n">
+        <v>46023.01968237269</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2053,8 +2055,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>46023.02016553291</v>
+      <c r="G14" s="3" t="n">
+        <v>46023.02016553241</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2170,8 +2172,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>46023.02070939919</v>
+      <c r="G15" s="3" t="n">
+        <v>46023.02070939815</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2287,8 +2289,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>46023.02119427144</v>
+      <c r="G16" s="3" t="n">
+        <v>46023.02119427083</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2404,8 +2406,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>46023.02266667582</v>
+      <c r="G17" s="3" t="n">
+        <v>46023.02266667824</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2521,8 +2523,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>46023.0292257897</v>
+      <c r="G18" s="3" t="n">
+        <v>46023.02922578704</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2638,8 +2640,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>46023.03090165459</v>
+      <c r="G19" s="3" t="n">
+        <v>46023.03090165509</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2755,8 +2757,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>46023.03100891325</v>
+      <c r="G20" s="3" t="n">
+        <v>46023.03100891204</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2872,8 +2874,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>46023.03162545666</v>
+      <c r="G21" s="3" t="n">
+        <v>46023.03162545139</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2989,8 +2991,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>46023.03165744711</v>
+      <c r="G22" s="3" t="n">
+        <v>46023.03165744213</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3106,8 +3108,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>46023.03313676827</v>
+      <c r="G23" s="3" t="n">
+        <v>46023.03313677083</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3223,8 +3225,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>46023.03610757519</v>
+      <c r="G24" s="3" t="n">
+        <v>46023.03610756945</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3340,8 +3342,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>46023.03729589166</v>
+      <c r="G25" s="3" t="n">
+        <v>46023.0372958912</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3457,8 +3459,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>46023.03762572994</v>
+      <c r="G26" s="3" t="n">
+        <v>46023.03762572916</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3574,8 +3576,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>46023.03802872961</v>
+      <c r="G27" s="3" t="n">
+        <v>46023.03802872685</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3691,8 +3693,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>46023.04086800238</v>
+      <c r="G28" s="3" t="n">
+        <v>46023.04086799768</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3808,8 +3810,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>46023.00241153532</v>
+      <c r="G29" s="3" t="n">
+        <v>46023.00241153935</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3925,7 +3927,7 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <v>46023.00724804398</v>
       </c>
       <c r="H30" t="inlineStr">
@@ -4042,8 +4044,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>46023.00734901706</v>
+      <c r="G31" s="3" t="n">
+        <v>46023.0073490162</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4159,8 +4161,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>46023.00739583743</v>
+      <c r="G32" s="3" t="n">
+        <v>46023.00739583333</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4276,8 +4278,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>46023.00828694193</v>
+      <c r="G33" s="3" t="n">
+        <v>46023.00828694444</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4393,8 +4395,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>46023.00888263098</v>
+      <c r="G34" s="3" t="n">
+        <v>46023.00888262731</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4510,8 +4512,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>46023.01003550665</v>
+      <c r="G35" s="3" t="n">
+        <v>46023.01003550926</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4627,8 +4629,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>46023.01039316128</v>
+      <c r="G36" s="3" t="n">
+        <v>46023.01039315972</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4744,8 +4746,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>46023.01104935136</v>
+      <c r="G37" s="3" t="n">
+        <v>46023.01104935185</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4861,8 +4863,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>46023.01136367552</v>
+      <c r="G38" s="3" t="n">
+        <v>46023.01136368055</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4978,8 +4980,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>46023.01698520175</v>
+      <c r="G39" s="3" t="n">
+        <v>46023.01698519676</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -5095,8 +5097,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>46023.01850887022</v>
+      <c r="G40" s="3" t="n">
+        <v>46023.01850886574</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -5212,8 +5214,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>46023.0255231536</v>
+      <c r="G41" s="3" t="n">
+        <v>46023.02552314815</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -5329,8 +5331,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>46023.02581562484</v>
+      <c r="G42" s="3" t="n">
+        <v>46023.025815625</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -5446,8 +5448,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>46023.02608346693</v>
+      <c r="G43" s="3" t="n">
+        <v>46023.02608347222</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -5563,8 +5565,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>46023.03141436285</v>
+      <c r="G44" s="3" t="n">
+        <v>46023.03141436342</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5680,8 +5682,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G45" s="2" t="n">
-        <v>46023.0314790259</v>
+      <c r="G45" s="3" t="n">
+        <v>46023.03147902778</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5797,8 +5799,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>46023.03854014095</v>
+      <c r="G46" s="3" t="n">
+        <v>46023.03854013889</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5914,8 +5916,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>46023.04123106353</v>
+      <c r="G47" s="3" t="n">
+        <v>46023.04123106482</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -6031,8 +6033,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G48" s="2" t="n">
-        <v>46023.04152467835</v>
+      <c r="G48" s="3" t="n">
+        <v>46023.04152467593</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -6148,8 +6150,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>46023.0006823405</v>
+      <c r="G49" s="3" t="n">
+        <v>46023.00068233797</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -6265,8 +6267,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G50" s="2" t="n">
-        <v>46023.00757147631</v>
+      <c r="G50" s="3" t="n">
+        <v>46023.00757148148</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -6382,8 +6384,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>46023.00848441877</v>
+      <c r="G51" s="3" t="n">
+        <v>46023.0084844213</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -6499,8 +6501,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G52" s="2" t="n">
-        <v>46023.01514644138</v>
+      <c r="G52" s="3" t="n">
+        <v>46023.01514644676</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -6616,8 +6618,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>46023.01646239047</v>
+      <c r="G53" s="3" t="n">
+        <v>46023.01646239583</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -6733,8 +6735,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>46023.01970391793</v>
+      <c r="G54" s="3" t="n">
+        <v>46023.01970392361</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -6850,8 +6852,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>46023.02697364891</v>
+      <c r="G55" s="3" t="n">
+        <v>46023.02697364584</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -6967,8 +6969,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>46023.03050611021</v>
+      <c r="G56" s="3" t="n">
+        <v>46023.03050611111</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -7084,8 +7086,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>46023.03084779371</v>
+      <c r="G57" s="3" t="n">
+        <v>46023.03084778935</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -7201,8 +7203,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>46023.03096947019</v>
+      <c r="G58" s="3" t="n">
+        <v>46023.0309694676</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -7318,8 +7320,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>46023.03351461142</v>
+      <c r="G59" s="3" t="n">
+        <v>46023.03351460648</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -7435,8 +7437,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>46023.03674442375</v>
+      <c r="G60" s="3" t="n">
+        <v>46023.0367444213</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -7552,8 +7554,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>46023.00133925865</v>
+      <c r="G61" s="3" t="n">
+        <v>46023.00133925926</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -7669,8 +7671,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>46023.00193671497</v>
+      <c r="G62" s="3" t="n">
+        <v>46023.00193671296</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -7786,8 +7788,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>46023.0065580017</v>
+      <c r="G63" s="3" t="n">
+        <v>46023.00655799769</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -7903,8 +7905,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G64" s="2" t="n">
-        <v>46023.00683307403</v>
+      <c r="G64" s="3" t="n">
+        <v>46023.0068330787</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -8020,8 +8022,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>46023.0096273503</v>
+      <c r="G65" s="3" t="n">
+        <v>46023.00962734954</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -8137,8 +8139,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>46023.01041173252</v>
+      <c r="G66" s="3" t="n">
+        <v>46023.01041173611</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -8254,8 +8256,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>46023.02105144974</v>
+      <c r="G67" s="3" t="n">
+        <v>46023.02105144676</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -8371,8 +8373,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>46023.03088996025</v>
+      <c r="G68" s="3" t="n">
+        <v>46023.03088996528</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -8488,8 +8490,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>46023.0315993847</v>
+      <c r="G69" s="3" t="n">
+        <v>46023.03159938657</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -8605,8 +8607,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>46023.03236564374</v>
+      <c r="G70" s="3" t="n">
+        <v>46023.03236564815</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -8722,8 +8724,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G71" s="2" t="n">
-        <v>46023.03389747966</v>
+      <c r="G71" s="3" t="n">
+        <v>46023.03389747685</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -8839,8 +8841,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>46023.03734039788</v>
+      <c r="G72" s="3" t="n">
+        <v>46023.03734039352</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -8956,8 +8958,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G73" s="2" t="n">
-        <v>46023.03764428148</v>
+      <c r="G73" s="3" t="n">
+        <v>46023.03764428241</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -9073,8 +9075,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>46023.03861049226</v>
+      <c r="G74" s="3" t="n">
+        <v>46023.03861049769</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -9190,8 +9192,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G75" s="2" t="n">
-        <v>46023.03901873139</v>
+      <c r="G75" s="3" t="n">
+        <v>46023.03901872685</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -9307,8 +9309,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>46023.04076972754</v>
+      <c r="G76" s="3" t="n">
+        <v>46023.04076972223</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -9424,8 +9426,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>46023.04118762803</v>
+      <c r="G77" s="3" t="n">
+        <v>46023.04118762731</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -9541,8 +9543,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>46023.00114171565</v>
+      <c r="G78" s="3" t="n">
+        <v>46023.00114171296</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -9658,7 +9660,7 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="3" t="n">
         <v>46023.00259733796</v>
       </c>
       <c r="H79" t="inlineStr">
@@ -9775,8 +9777,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G80" s="2" t="n">
-        <v>46023.00492623229</v>
+      <c r="G80" s="3" t="n">
+        <v>46023.00492622685</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -9892,8 +9894,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G81" s="2" t="n">
-        <v>46023.00641746661</v>
+      <c r="G81" s="3" t="n">
+        <v>46023.00641746528</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -10009,8 +10011,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G82" s="2" t="n">
-        <v>46023.00816434983</v>
+      <c r="G82" s="3" t="n">
+        <v>46023.00816435185</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -10126,8 +10128,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G83" s="2" t="n">
-        <v>46023.0093541059</v>
+      <c r="G83" s="3" t="n">
+        <v>46023.0093541088</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -10243,8 +10245,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G84" s="2" t="n">
-        <v>46023.01098473653</v>
+      <c r="G84" s="3" t="n">
+        <v>46023.0109847338</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -10360,8 +10362,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n">
-        <v>46023.01270743522</v>
+      <c r="G85" s="3" t="n">
+        <v>46023.01270743056</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -10477,8 +10479,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G86" s="2" t="n">
-        <v>46023.01492932341</v>
+      <c r="G86" s="3" t="n">
+        <v>46023.0149293287</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -10594,8 +10596,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G87" s="2" t="n">
-        <v>46023.01507324843</v>
+      <c r="G87" s="3" t="n">
+        <v>46023.01507325232</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -10711,8 +10713,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G88" s="2" t="n">
-        <v>46023.01827265652</v>
+      <c r="G88" s="3" t="n">
+        <v>46023.01827266204</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -10828,8 +10830,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G89" s="2" t="n">
-        <v>46023.0212611125</v>
+      <c r="G89" s="3" t="n">
+        <v>46023.02126111111</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -10945,8 +10947,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G90" s="2" t="n">
-        <v>46023.02801407736</v>
+      <c r="G90" s="3" t="n">
+        <v>46023.02801407407</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -11062,8 +11064,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G91" s="2" t="n">
-        <v>46023.02894807063</v>
+      <c r="G91" s="3" t="n">
+        <v>46023.02894806713</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -11179,8 +11181,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G92" s="2" t="n">
-        <v>46023.02961366895</v>
+      <c r="G92" s="3" t="n">
+        <v>46023.02961366898</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -11296,8 +11298,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G93" s="2" t="n">
-        <v>46023.03024345048</v>
+      <c r="G93" s="3" t="n">
+        <v>46023.03024344907</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -11413,8 +11415,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G94" s="2" t="n">
-        <v>46023.03027645541</v>
+      <c r="G94" s="3" t="n">
+        <v>46023.03027645833</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -11530,8 +11532,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G95" s="2" t="n">
-        <v>46023.03076831069</v>
+      <c r="G95" s="3" t="n">
+        <v>46023.03076831019</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -11647,8 +11649,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G96" s="2" t="n">
-        <v>46023.0350093778</v>
+      <c r="G96" s="3" t="n">
+        <v>46023.035009375</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -11764,8 +11766,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G97" s="2" t="n">
-        <v>46023.03533727981</v>
+      <c r="G97" s="3" t="n">
+        <v>46023.03533728009</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -11881,8 +11883,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G98" s="2" t="n">
-        <v>46023.03646928912</v>
+      <c r="G98" s="3" t="n">
+        <v>46023.03646929398</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -11998,8 +12000,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G99" s="2" t="n">
-        <v>46023.00089781737</v>
+      <c r="G99" s="3" t="n">
+        <v>46023.0008978125</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -12115,8 +12117,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G100" s="2" t="n">
-        <v>46023.00131012093</v>
+      <c r="G100" s="3" t="n">
+        <v>46023.00131011574</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -12232,8 +12234,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G101" s="2" t="n">
-        <v>46023.00759743317</v>
+      <c r="G101" s="3" t="n">
+        <v>46023.00759743056</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -12349,8 +12351,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G102" s="2" t="n">
-        <v>46023.00790160857</v>
+      <c r="G102" s="3" t="n">
+        <v>46023.0079016088</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -12466,8 +12468,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G103" s="2" t="n">
-        <v>46023.01174297816</v>
+      <c r="G103" s="3" t="n">
+        <v>46023.01174297454</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -12583,8 +12585,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G104" s="2" t="n">
-        <v>46023.01375970791</v>
+      <c r="G104" s="3" t="n">
+        <v>46023.01375971065</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -12700,8 +12702,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G105" s="2" t="n">
-        <v>46023.01696416578</v>
+      <c r="G105" s="3" t="n">
+        <v>46023.01696416667</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -12817,8 +12819,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G106" s="2" t="n">
-        <v>46023.01761993175</v>
+      <c r="G106" s="3" t="n">
+        <v>46023.01761993056</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -12934,8 +12936,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G107" s="2" t="n">
-        <v>46023.01899101081</v>
+      <c r="G107" s="3" t="n">
+        <v>46023.01899100695</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -13051,8 +13053,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G108" s="2" t="n">
-        <v>46023.02671609005</v>
+      <c r="G108" s="3" t="n">
+        <v>46023.02671608796</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -13168,8 +13170,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G109" s="2" t="n">
-        <v>46023.02698179609</v>
+      <c r="G109" s="3" t="n">
+        <v>46023.02698179398</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -13285,8 +13287,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G110" s="2" t="n">
-        <v>46023.03056749001</v>
+      <c r="G110" s="3" t="n">
+        <v>46023.03056748843</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -13402,8 +13404,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G111" s="2" t="n">
-        <v>46023.0309091311</v>
+      <c r="G111" s="3" t="n">
+        <v>46023.03090913194</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -13519,8 +13521,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G112" s="2" t="n">
-        <v>46023.03385803807</v>
+      <c r="G112" s="3" t="n">
+        <v>46023.03385803241</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -13636,8 +13638,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G113" s="2" t="n">
-        <v>46023.03520151386</v>
+      <c r="G113" s="3" t="n">
+        <v>46023.03520151621</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -13753,8 +13755,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G114" s="2" t="n">
-        <v>46023.03642691367</v>
+      <c r="G114" s="3" t="n">
+        <v>46023.03642690972</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -13870,8 +13872,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G115" s="2" t="n">
-        <v>46023.03856228726</v>
+      <c r="G115" s="3" t="n">
+        <v>46023.03856229167</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -13987,8 +13989,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G116" s="2" t="n">
-        <v>46023.0399806632</v>
+      <c r="G116" s="3" t="n">
+        <v>46023.03998065972</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -14104,8 +14106,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G117" s="2" t="n">
-        <v>46023.00088026752</v>
+      <c r="G117" s="3" t="n">
+        <v>46023.00088026621</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -14221,8 +14223,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G118" s="2" t="n">
-        <v>46023.00178586316</v>
+      <c r="G118" s="3" t="n">
+        <v>46023.00178586806</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -14338,8 +14340,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G119" s="2" t="n">
-        <v>46023.00576567696</v>
+      <c r="G119" s="3" t="n">
+        <v>46023.0057656713</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -14455,8 +14457,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G120" s="2" t="n">
-        <v>46023.00652857201</v>
+      <c r="G120" s="3" t="n">
+        <v>46023.00652857639</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -14572,8 +14574,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G121" s="2" t="n">
-        <v>46023.00858166416</v>
+      <c r="G121" s="3" t="n">
+        <v>46023.00858166667</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -14689,8 +14691,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G122" s="2" t="n">
-        <v>46023.01266666441</v>
+      <c r="G122" s="3" t="n">
+        <v>46023.01266666667</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -14806,8 +14808,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G123" s="2" t="n">
-        <v>46023.01623666944</v>
+      <c r="G123" s="3" t="n">
+        <v>46023.01623666667</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -14923,8 +14925,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G124" s="2" t="n">
-        <v>46023.01669370275</v>
+      <c r="G124" s="3" t="n">
+        <v>46023.01669370371</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -15040,8 +15042,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G125" s="2" t="n">
-        <v>46023.01951596158</v>
+      <c r="G125" s="3" t="n">
+        <v>46023.01951596064</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -15157,8 +15159,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G126" s="2" t="n">
-        <v>46023.02204607369</v>
+      <c r="G126" s="3" t="n">
+        <v>46023.02204607639</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -15274,8 +15276,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G127" s="2" t="n">
-        <v>46023.02399136408</v>
+      <c r="G127" s="3" t="n">
+        <v>46023.02399136574</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -15391,8 +15393,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G128" s="2" t="n">
-        <v>46023.02735969735</v>
+      <c r="G128" s="3" t="n">
+        <v>46023.02735969907</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -15508,8 +15510,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G129" s="2" t="n">
-        <v>46023.03151521831</v>
+      <c r="G129" s="3" t="n">
+        <v>46023.03151521991</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -15625,8 +15627,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G130" s="2" t="n">
-        <v>46023.03321945595</v>
+      <c r="G130" s="3" t="n">
+        <v>46023.03321945602</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -15742,8 +15744,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G131" s="2" t="n">
-        <v>46023.03462805026</v>
+      <c r="G131" s="3" t="n">
+        <v>46023.03462805555</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -15859,8 +15861,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G132" s="2" t="n">
-        <v>46023.03467647902</v>
+      <c r="G132" s="3" t="n">
+        <v>46023.03467648148</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -15976,8 +15978,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G133" s="2" t="n">
-        <v>46023.03832661401</v>
+      <c r="G133" s="3" t="n">
+        <v>46023.0383266088</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -16093,8 +16095,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G134" s="2" t="n">
-        <v>46023.00192803679</v>
+      <c r="G134" s="3" t="n">
+        <v>46023.0019280324</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -16210,8 +16212,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G135" s="2" t="n">
-        <v>46023.00304998348</v>
+      <c r="G135" s="3" t="n">
+        <v>46023.00304998842</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -16327,8 +16329,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G136" s="2" t="n">
-        <v>46023.00542719833</v>
+      <c r="G136" s="3" t="n">
+        <v>46023.00542719907</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -16444,8 +16446,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G137" s="2" t="n">
-        <v>46023.00828850202</v>
+      <c r="G137" s="3" t="n">
+        <v>46023.00828850694</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -16561,8 +16563,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G138" s="2" t="n">
-        <v>46023.01068009056</v>
+      <c r="G138" s="3" t="n">
+        <v>46023.01068009259</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -16678,8 +16680,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G139" s="2" t="n">
-        <v>46023.01295060159</v>
+      <c r="G139" s="3" t="n">
+        <v>46023.01295060185</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -16795,8 +16797,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G140" s="2" t="n">
-        <v>46023.01397082108</v>
+      <c r="G140" s="3" t="n">
+        <v>46023.01397082176</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -16912,8 +16914,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G141" s="2" t="n">
-        <v>46023.01630512072</v>
+      <c r="G141" s="3" t="n">
+        <v>46023.01630511574</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -17029,8 +17031,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G142" s="2" t="n">
-        <v>46023.01666357779</v>
+      <c r="G142" s="3" t="n">
+        <v>46023.01666357639</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -17146,8 +17148,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G143" s="2" t="n">
-        <v>46023.02127316449</v>
+      <c r="G143" s="3" t="n">
+        <v>46023.02127315972</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -17263,8 +17265,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G144" s="2" t="n">
-        <v>46023.02312049596</v>
+      <c r="G144" s="3" t="n">
+        <v>46023.02312049769</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -17380,8 +17382,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G145" s="2" t="n">
-        <v>46023.03102065768</v>
+      <c r="G145" s="3" t="n">
+        <v>46023.03102065972</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -17497,8 +17499,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G146" s="2" t="n">
-        <v>46023.03314023621</v>
+      <c r="G146" s="3" t="n">
+        <v>46023.03314023148</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -17614,8 +17616,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G147" s="2" t="n">
-        <v>46023.03627569265</v>
+      <c r="G147" s="3" t="n">
+        <v>46023.03627569445</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -17731,8 +17733,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G148" s="2" t="n">
-        <v>46023.03802821692</v>
+      <c r="G148" s="3" t="n">
+        <v>46023.03802821759</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -17848,8 +17850,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G149" s="2" t="n">
-        <v>46023.03866334879</v>
+      <c r="G149" s="3" t="n">
+        <v>46023.03866334491</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -17965,8 +17967,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G150" s="2" t="n">
-        <v>46023.03922833965</v>
+      <c r="G150" s="3" t="n">
+        <v>46023.03922834491</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -18082,8 +18084,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G151" s="2" t="n">
-        <v>46023.04079002704</v>
+      <c r="G151" s="3" t="n">
+        <v>46023.04079002315</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -18199,8 +18201,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G152" s="2" t="n">
-        <v>46023.00272696772</v>
+      <c r="G152" s="3" t="n">
+        <v>46023.00272696759</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -18316,8 +18318,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G153" s="2" t="n">
-        <v>46023.00403347829</v>
+      <c r="G153" s="3" t="n">
+        <v>46023.0040334838</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -18433,8 +18435,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G154" s="2" t="n">
-        <v>46023.00619976671</v>
+      <c r="G154" s="3" t="n">
+        <v>46023.00619976852</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -18550,8 +18552,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G155" s="2" t="n">
-        <v>46023.00650021514</v>
+      <c r="G155" s="3" t="n">
+        <v>46023.0065002199</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -18667,8 +18669,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G156" s="2" t="n">
-        <v>46023.00696024195</v>
+      <c r="G156" s="3" t="n">
+        <v>46023.00696024305</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -18784,8 +18786,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G157" s="2" t="n">
-        <v>46023.00742265462</v>
+      <c r="G157" s="3" t="n">
+        <v>46023.00742265047</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -18901,8 +18903,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G158" s="2" t="n">
-        <v>46023.00932970899</v>
+      <c r="G158" s="3" t="n">
+        <v>46023.00932971065</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -19018,8 +19020,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G159" s="2" t="n">
-        <v>46023.0096222855</v>
+      <c r="G159" s="3" t="n">
+        <v>46023.00962228009</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -19135,8 +19137,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G160" s="2" t="n">
-        <v>46023.01204525065</v>
+      <c r="G160" s="3" t="n">
+        <v>46023.01204525463</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -19252,8 +19254,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G161" s="2" t="n">
-        <v>46023.01242992532</v>
+      <c r="G161" s="3" t="n">
+        <v>46023.01242993055</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -19369,8 +19371,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G162" s="2" t="n">
-        <v>46023.01470164498</v>
+      <c r="G162" s="3" t="n">
+        <v>46023.01470164352</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -19486,8 +19488,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G163" s="2" t="n">
-        <v>46023.01584237164</v>
+      <c r="G163" s="3" t="n">
+        <v>46023.01584237268</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -19603,8 +19605,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G164" s="2" t="n">
-        <v>46023.01897590249</v>
+      <c r="G164" s="3" t="n">
+        <v>46023.01897590278</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -19720,8 +19722,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G165" s="2" t="n">
-        <v>46023.02116364019</v>
+      <c r="G165" s="3" t="n">
+        <v>46023.02116364583</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -19837,8 +19839,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G166" s="2" t="n">
-        <v>46023.0227664909</v>
+      <c r="G166" s="3" t="n">
+        <v>46023.02276649306</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -19954,8 +19956,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G167" s="2" t="n">
-        <v>46023.02418736996</v>
+      <c r="G167" s="3" t="n">
+        <v>46023.02418737268</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -20071,8 +20073,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G168" s="2" t="n">
-        <v>46023.0292654134</v>
+      <c r="G168" s="3" t="n">
+        <v>46023.02926541667</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -20188,8 +20190,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G169" s="2" t="n">
-        <v>46023.0303289635</v>
+      <c r="G169" s="3" t="n">
+        <v>46023.03032895833</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -20305,8 +20307,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G170" s="2" t="n">
-        <v>46023.03231449259</v>
+      <c r="G170" s="3" t="n">
+        <v>46023.03231449074</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -20422,8 +20424,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G171" s="2" t="n">
-        <v>46023.03366079741</v>
+      <c r="G171" s="3" t="n">
+        <v>46023.03366079861</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -20539,8 +20541,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G172" s="2" t="n">
-        <v>46023.04080160078</v>
+      <c r="G172" s="3" t="n">
+        <v>46023.04080159722</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -20656,8 +20658,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G173" s="2" t="n">
-        <v>46023.04128231465</v>
+      <c r="G173" s="3" t="n">
+        <v>46023.04128231481</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -20773,8 +20775,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G174" s="2" t="n">
-        <v>46023.00110394501</v>
+      <c r="G174" s="3" t="n">
+        <v>46023.00110394676</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -20890,8 +20892,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G175" s="2" t="n">
-        <v>46023.00580104201</v>
+      <c r="G175" s="3" t="n">
+        <v>46023.00580104167</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -21007,8 +21009,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G176" s="2" t="n">
-        <v>46023.00628625421</v>
+      <c r="G176" s="3" t="n">
+        <v>46023.00628625</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -21124,8 +21126,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G177" s="2" t="n">
-        <v>46023.01085937311</v>
+      <c r="G177" s="3" t="n">
+        <v>46023.010859375</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -21241,8 +21243,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G178" s="2" t="n">
-        <v>46023.01293895409</v>
+      <c r="G178" s="3" t="n">
+        <v>46023.01293895833</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -21358,8 +21360,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G179" s="2" t="n">
-        <v>46023.01501312611</v>
+      <c r="G179" s="3" t="n">
+        <v>46023.015013125</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -21475,8 +21477,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G180" s="2" t="n">
-        <v>46023.01651475282</v>
+      <c r="G180" s="3" t="n">
+        <v>46023.01651475694</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -21592,8 +21594,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G181" s="2" t="n">
-        <v>46023.01654386999</v>
+      <c r="G181" s="3" t="n">
+        <v>46023.01654386574</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -21709,8 +21711,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G182" s="2" t="n">
-        <v>46023.01932872329</v>
+      <c r="G182" s="3" t="n">
+        <v>46023.01932872685</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -21826,8 +21828,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G183" s="2" t="n">
-        <v>46023.02089676565</v>
+      <c r="G183" s="3" t="n">
+        <v>46023.02089677083</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -21943,8 +21945,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G184" s="2" t="n">
-        <v>46023.02138999155</v>
+      <c r="G184" s="3" t="n">
+        <v>46023.02138998843</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -22060,8 +22062,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G185" s="2" t="n">
-        <v>46023.02179757415</v>
+      <c r="G185" s="3" t="n">
+        <v>46023.02179756945</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -22177,8 +22179,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G186" s="2" t="n">
-        <v>46023.02316545741</v>
+      <c r="G186" s="3" t="n">
+        <v>46023.02316546296</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -22294,8 +22296,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G187" s="2" t="n">
-        <v>46023.02445022669</v>
+      <c r="G187" s="3" t="n">
+        <v>46023.02445023148</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -22411,8 +22413,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G188" s="2" t="n">
-        <v>46023.02621217883</v>
+      <c r="G188" s="3" t="n">
+        <v>46023.02621217592</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -22528,8 +22530,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G189" s="2" t="n">
-        <v>46023.02964970518</v>
+      <c r="G189" s="3" t="n">
+        <v>46023.02964971065</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -22645,8 +22647,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G190" s="2" t="n">
-        <v>46023.03445488207</v>
+      <c r="G190" s="3" t="n">
+        <v>46023.03445488426</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -22762,8 +22764,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G191" s="2" t="n">
-        <v>46023.03484152117</v>
+      <c r="G191" s="3" t="n">
+        <v>46023.0348415162</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -22879,8 +22881,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G192" s="2" t="n">
-        <v>46023.03759234458</v>
+      <c r="G192" s="3" t="n">
+        <v>46023.03759234954</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -22996,8 +22998,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G193" s="2" t="n">
-        <v>46023.03787241801</v>
+      <c r="G193" s="3" t="n">
+        <v>46023.03787241898</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -23113,8 +23115,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G194" s="2" t="n">
-        <v>46023.03925820262</v>
+      <c r="G194" s="3" t="n">
+        <v>46023.03925820602</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -23230,8 +23232,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G195" s="2" t="n">
-        <v>46023.03932547104</v>
+      <c r="G195" s="3" t="n">
+        <v>46023.03932547454</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -23347,8 +23349,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G196" s="2" t="n">
-        <v>46023.0041134347</v>
+      <c r="G196" s="3" t="n">
+        <v>46023.0041134375</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -23464,8 +23466,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G197" s="2" t="n">
-        <v>46023.00995824078</v>
+      <c r="G197" s="3" t="n">
+        <v>46023.00995824074</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -23581,8 +23583,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G198" s="2" t="n">
-        <v>46023.01163891027</v>
+      <c r="G198" s="3" t="n">
+        <v>46023.01163891204</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -23698,8 +23700,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G199" s="2" t="n">
-        <v>46023.01629932044</v>
+      <c r="G199" s="3" t="n">
+        <v>46023.01629931713</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -23815,8 +23817,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G200" s="2" t="n">
-        <v>46023.01634016159</v>
+      <c r="G200" s="3" t="n">
+        <v>46023.01634016204</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -23932,8 +23934,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G201" s="2" t="n">
-        <v>46023.01687726456</v>
+      <c r="G201" s="3" t="n">
+        <v>46023.01687726852</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -24049,8 +24051,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G202" s="2" t="n">
-        <v>46023.01853169576</v>
+      <c r="G202" s="3" t="n">
+        <v>46023.01853170139</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -24166,8 +24168,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G203" s="2" t="n">
-        <v>46023.02154507866</v>
+      <c r="G203" s="3" t="n">
+        <v>46023.02154508102</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -24283,8 +24285,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G204" s="2" t="n">
-        <v>46023.02416335237</v>
+      <c r="G204" s="3" t="n">
+        <v>46023.02416335648</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -24400,8 +24402,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G205" s="2" t="n">
-        <v>46023.02418137353</v>
+      <c r="G205" s="3" t="n">
+        <v>46023.02418137732</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -24517,8 +24519,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G206" s="2" t="n">
-        <v>46023.02486442303</v>
+      <c r="G206" s="3" t="n">
+        <v>46023.0248644213</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -24634,8 +24636,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G207" s="2" t="n">
-        <v>46023.02606135121</v>
+      <c r="G207" s="3" t="n">
+        <v>46023.02606135417</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -24751,8 +24753,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G208" s="2" t="n">
-        <v>46023.0311823233</v>
+      <c r="G208" s="3" t="n">
+        <v>46023.03118232639</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -24868,8 +24870,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G209" s="2" t="n">
-        <v>46023.03259618959</v>
+      <c r="G209" s="3" t="n">
+        <v>46023.03259619213</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -24985,8 +24987,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G210" s="2" t="n">
-        <v>46023.03451834242</v>
+      <c r="G210" s="3" t="n">
+        <v>46023.03451834491</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -25102,8 +25104,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G211" s="2" t="n">
-        <v>46023.00045258953</v>
+      <c r="G211" s="3" t="n">
+        <v>46023.00045259259</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -25219,8 +25221,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G212" s="2" t="n">
-        <v>46023.00248440102</v>
+      <c r="G212" s="3" t="n">
+        <v>46023.00248439814</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -25336,8 +25338,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G213" s="2" t="n">
-        <v>46023.00252353174</v>
+      <c r="G213" s="3" t="n">
+        <v>46023.00252353009</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -25453,8 +25455,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G214" s="2" t="n">
-        <v>46023.00445983766</v>
+      <c r="G214" s="3" t="n">
+        <v>46023.00445983796</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -25570,8 +25572,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G215" s="2" t="n">
-        <v>46023.00504580483</v>
+      <c r="G215" s="3" t="n">
+        <v>46023.00504581018</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -25687,8 +25689,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G216" s="2" t="n">
-        <v>46023.00559667257</v>
+      <c r="G216" s="3" t="n">
+        <v>46023.00559667824</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -25804,8 +25806,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G217" s="2" t="n">
-        <v>46023.00854083998</v>
+      <c r="G217" s="3" t="n">
+        <v>46023.00854084491</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -25921,8 +25923,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G218" s="2" t="n">
-        <v>46023.00868242037</v>
+      <c r="G218" s="3" t="n">
+        <v>46023.00868241898</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -26038,8 +26040,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G219" s="2" t="n">
-        <v>46023.00906745248</v>
+      <c r="G219" s="3" t="n">
+        <v>46023.00906745371</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -26155,8 +26157,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G220" s="2" t="n">
-        <v>46023.01209433958</v>
+      <c r="G220" s="3" t="n">
+        <v>46023.01209434028</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -26272,8 +26274,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G221" s="2" t="n">
-        <v>46023.01411933365</v>
+      <c r="G221" s="3" t="n">
+        <v>46023.01411932871</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -26389,8 +26391,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G222" s="2" t="n">
-        <v>46023.01440943472</v>
+      <c r="G222" s="3" t="n">
+        <v>46023.01440943287</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -26506,8 +26508,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G223" s="2" t="n">
-        <v>46023.01501565982</v>
+      <c r="G223" s="3" t="n">
+        <v>46023.01501565972</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -26623,8 +26625,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G224" s="2" t="n">
-        <v>46023.01554207036</v>
+      <c r="G224" s="3" t="n">
+        <v>46023.01554207176</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -26740,8 +26742,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G225" s="2" t="n">
-        <v>46023.01681956172</v>
+      <c r="G225" s="3" t="n">
+        <v>46023.01681956019</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -26857,8 +26859,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G226" s="2" t="n">
-        <v>46023.02172646986</v>
+      <c r="G226" s="3" t="n">
+        <v>46023.02172646991</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -26974,8 +26976,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G227" s="2" t="n">
-        <v>46023.02489058085</v>
+      <c r="G227" s="3" t="n">
+        <v>46023.0248905787</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -27091,8 +27093,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G228" s="2" t="n">
-        <v>46023.02749927917</v>
+      <c r="G228" s="3" t="n">
+        <v>46023.02749928241</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -27208,8 +27210,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G229" s="2" t="n">
-        <v>46023.02870664867</v>
+      <c r="G229" s="3" t="n">
+        <v>46023.02870664352</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -27325,8 +27327,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G230" s="2" t="n">
-        <v>46023.02895726355</v>
+      <c r="G230" s="3" t="n">
+        <v>46023.02895726852</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -27442,8 +27444,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G231" s="2" t="n">
-        <v>46023.03812075926</v>
+      <c r="G231" s="3" t="n">
+        <v>46023.03812076389</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -27559,8 +27561,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G232" s="2" t="n">
-        <v>46023.03840458163</v>
+      <c r="G232" s="3" t="n">
+        <v>46023.03840458333</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -27676,8 +27678,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G233" s="2" t="n">
-        <v>46023.04001961874</v>
+      <c r="G233" s="3" t="n">
+        <v>46023.04001961806</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -27793,8 +27795,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G234" s="2" t="n">
-        <v>46023.04149228983</v>
+      <c r="G234" s="3" t="n">
+        <v>46023.04149229167</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -27910,8 +27912,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G235" s="2" t="n">
-        <v>46023.00183607575</v>
+      <c r="G235" s="3" t="n">
+        <v>46023.00183607639</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -28027,8 +28029,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G236" s="2" t="n">
-        <v>46023.00213504636</v>
+      <c r="G236" s="3" t="n">
+        <v>46023.0021350463</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -28144,8 +28146,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G237" s="2" t="n">
-        <v>46023.00407297634</v>
+      <c r="G237" s="3" t="n">
+        <v>46023.00407297454</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -28261,8 +28263,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G238" s="2" t="n">
-        <v>46023.00436689346</v>
+      <c r="G238" s="3" t="n">
+        <v>46023.00436689815</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -28378,8 +28380,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G239" s="2" t="n">
-        <v>46023.01181606967</v>
+      <c r="G239" s="3" t="n">
+        <v>46023.01181606481</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -28495,8 +28497,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G240" s="2" t="n">
-        <v>46023.01224339493</v>
+      <c r="G240" s="3" t="n">
+        <v>46023.0122433912</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -28612,8 +28614,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G241" s="2" t="n">
-        <v>46023.01490413063</v>
+      <c r="G241" s="3" t="n">
+        <v>46023.01490413195</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -28729,8 +28731,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G242" s="2" t="n">
-        <v>46023.01617623793</v>
+      <c r="G242" s="3" t="n">
+        <v>46023.01617623842</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -28846,8 +28848,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G243" s="2" t="n">
-        <v>46023.01883973274</v>
+      <c r="G243" s="3" t="n">
+        <v>46023.0188397338</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -28963,8 +28965,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G244" s="2" t="n">
-        <v>46023.01999215312</v>
+      <c r="G244" s="3" t="n">
+        <v>46023.01999215277</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -29080,8 +29082,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G245" s="2" t="n">
-        <v>46023.02577704001</v>
+      <c r="G245" s="3" t="n">
+        <v>46023.02577703704</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -29197,8 +29199,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G246" s="2" t="n">
-        <v>46023.02585120074</v>
+      <c r="G246" s="3" t="n">
+        <v>46023.0258512037</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -29314,8 +29316,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G247" s="2" t="n">
-        <v>46023.02687477242</v>
+      <c r="G247" s="3" t="n">
+        <v>46023.02687476852</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
@@ -29431,8 +29433,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G248" s="2" t="n">
-        <v>46023.03070313632</v>
+      <c r="G248" s="3" t="n">
+        <v>46023.03070313657</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -29548,8 +29550,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G249" s="2" t="n">
-        <v>46023.03849475243</v>
+      <c r="G249" s="3" t="n">
+        <v>46023.03849475695</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -29665,8 +29667,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G250" s="2" t="n">
-        <v>46023.04095816037</v>
+      <c r="G250" s="3" t="n">
+        <v>46023.04095815972</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -29782,8 +29784,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G251" s="2" t="n">
-        <v>46023.00262624999</v>
+      <c r="G251" s="3" t="n">
+        <v>46023.00262625</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -29899,8 +29901,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G252" s="2" t="n">
-        <v>46023.00316537808</v>
+      <c r="G252" s="3" t="n">
+        <v>46023.00316538195</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -30016,8 +30018,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G253" s="2" t="n">
-        <v>46023.00394675662</v>
+      <c r="G253" s="3" t="n">
+        <v>46023.00394675926</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -30133,8 +30135,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G254" s="2" t="n">
-        <v>46023.00540184461</v>
+      <c r="G254" s="3" t="n">
+        <v>46023.00540184028</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -30250,8 +30252,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G255" s="2" t="n">
-        <v>46023.00627156407</v>
+      <c r="G255" s="3" t="n">
+        <v>46023.0062715625</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -30367,8 +30369,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G256" s="2" t="n">
-        <v>46023.00783265237</v>
+      <c r="G256" s="3" t="n">
+        <v>46023.00783265047</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -30484,8 +30486,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G257" s="2" t="n">
-        <v>46023.00902597279</v>
+      <c r="G257" s="3" t="n">
+        <v>46023.00902597222</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
@@ -30601,8 +30603,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G258" s="2" t="n">
-        <v>46023.01331129251</v>
+      <c r="G258" s="3" t="n">
+        <v>46023.01331129629</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -30718,8 +30720,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G259" s="2" t="n">
-        <v>46023.01446948671</v>
+      <c r="G259" s="3" t="n">
+        <v>46023.01446949074</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -30835,8 +30837,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G260" s="2" t="n">
-        <v>46023.01718969893</v>
+      <c r="G260" s="3" t="n">
+        <v>46023.01718969907</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -30952,8 +30954,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G261" s="2" t="n">
-        <v>46023.01785640421</v>
+      <c r="G261" s="3" t="n">
+        <v>46023.01785640046</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
@@ -31069,8 +31071,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G262" s="2" t="n">
-        <v>46023.02442744961</v>
+      <c r="G262" s="3" t="n">
+        <v>46023.0244274537</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -31186,8 +31188,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G263" s="2" t="n">
-        <v>46023.02644645674</v>
+      <c r="G263" s="3" t="n">
+        <v>46023.02644645833</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -31303,8 +31305,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G264" s="2" t="n">
-        <v>46023.02847820925</v>
+      <c r="G264" s="3" t="n">
+        <v>46023.02847820602</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -31420,8 +31422,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G265" s="2" t="n">
-        <v>46023.03048295051</v>
+      <c r="G265" s="3" t="n">
+        <v>46023.03048295139</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -31537,8 +31539,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G266" s="2" t="n">
-        <v>46023.03404084848</v>
+      <c r="G266" s="3" t="n">
+        <v>46023.0340408449</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -31654,8 +31656,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G267" s="2" t="n">
-        <v>46023.0342201379</v>
+      <c r="G267" s="3" t="n">
+        <v>46023.03422013889</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -31771,8 +31773,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G268" s="2" t="n">
-        <v>46023.03750569992</v>
+      <c r="G268" s="3" t="n">
+        <v>46023.03750569445</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -31888,8 +31890,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G269" s="2" t="n">
-        <v>46023.04004955692</v>
+      <c r="G269" s="3" t="n">
+        <v>46023.04004956019</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
@@ -32005,8 +32007,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G270" s="2" t="n">
-        <v>46023.04050431026</v>
+      <c r="G270" s="3" t="n">
+        <v>46023.04050430556</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -32122,8 +32124,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G271" s="2" t="n">
-        <v>46023.00035229192</v>
+      <c r="G271" s="3" t="n">
+        <v>46023.00035229167</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -32239,8 +32241,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G272" s="2" t="n">
-        <v>46023.00078801461</v>
+      <c r="G272" s="3" t="n">
+        <v>46023.00078800926</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -32356,8 +32358,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G273" s="2" t="n">
-        <v>46023.00663512704</v>
+      <c r="G273" s="3" t="n">
+        <v>46023.00663512731</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -32473,8 +32475,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G274" s="2" t="n">
-        <v>46023.00726734052</v>
+      <c r="G274" s="3" t="n">
+        <v>46023.00726733796</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -32590,8 +32592,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G275" s="2" t="n">
-        <v>46023.00781043583</v>
+      <c r="G275" s="3" t="n">
+        <v>46023.00781043981</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -32707,8 +32709,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G276" s="2" t="n">
-        <v>46023.01008103926</v>
+      <c r="G276" s="3" t="n">
+        <v>46023.01008104167</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -32824,8 +32826,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G277" s="2" t="n">
-        <v>46023.0112292913</v>
+      <c r="G277" s="3" t="n">
+        <v>46023.01122929398</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
@@ -32941,8 +32943,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G278" s="2" t="n">
-        <v>46023.01124138835</v>
+      <c r="G278" s="3" t="n">
+        <v>46023.01124138889</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -33058,8 +33060,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G279" s="2" t="n">
-        <v>46023.01217241937</v>
+      <c r="G279" s="3" t="n">
+        <v>46023.01217241898</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -33175,8 +33177,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G280" s="2" t="n">
-        <v>46023.01725660534</v>
+      <c r="G280" s="3" t="n">
+        <v>46023.01725660879</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -33292,8 +33294,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G281" s="2" t="n">
-        <v>46023.01982092673</v>
+      <c r="G281" s="3" t="n">
+        <v>46023.01982092593</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
@@ -33409,8 +33411,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G282" s="2" t="n">
-        <v>46023.02348009907</v>
+      <c r="G282" s="3" t="n">
+        <v>46023.02348010417</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
@@ -33526,8 +33528,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G283" s="2" t="n">
-        <v>46023.02410682905</v>
+      <c r="G283" s="3" t="n">
+        <v>46023.02410682871</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -33643,8 +33645,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G284" s="2" t="n">
-        <v>46023.02634452597</v>
+      <c r="G284" s="3" t="n">
+        <v>46023.02634452546</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
@@ -33760,8 +33762,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G285" s="2" t="n">
-        <v>46023.02815463065</v>
+      <c r="G285" s="3" t="n">
+        <v>46023.02815462963</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -33877,8 +33879,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G286" s="2" t="n">
-        <v>46023.02827408375</v>
+      <c r="G286" s="3" t="n">
+        <v>46023.02827408565</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -33994,8 +33996,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G287" s="2" t="n">
-        <v>46023.0292080635</v>
+      <c r="G287" s="3" t="n">
+        <v>46023.02920806713</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -34111,8 +34113,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G288" s="2" t="n">
-        <v>46023.03071981098</v>
+      <c r="G288" s="3" t="n">
+        <v>46023.03071981481</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -34228,7 +34230,7 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G289" s="2" t="n">
+      <c r="G289" s="3" t="n">
         <v>46023.0336037963</v>
       </c>
       <c r="H289" t="inlineStr">
@@ -34345,8 +34347,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G290" s="2" t="n">
-        <v>46023.03518639655</v>
+      <c r="G290" s="3" t="n">
+        <v>46023.03518640046</v>
       </c>
       <c r="H290" t="inlineStr">
         <is>
@@ -34462,8 +34464,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G291" s="2" t="n">
-        <v>46023.03715516179</v>
+      <c r="G291" s="3" t="n">
+        <v>46023.03715516203</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
@@ -34579,8 +34581,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G292" s="2" t="n">
-        <v>46023.0379860965</v>
+      <c r="G292" s="3" t="n">
+        <v>46023.03798609954</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
@@ -34696,8 +34698,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G293" s="2" t="n">
-        <v>46023.04115036749</v>
+      <c r="G293" s="3" t="n">
+        <v>46023.04115037037</v>
       </c>
       <c r="H293" t="inlineStr">
         <is>
@@ -34813,8 +34815,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G294" s="2" t="n">
-        <v>46023.04134527036</v>
+      <c r="G294" s="3" t="n">
+        <v>46023.0413452662</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
@@ -34930,8 +34932,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G295" s="2" t="n">
-        <v>46023.00367857092</v>
+      <c r="G295" s="3" t="n">
+        <v>46023.00367857639</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
@@ -35047,8 +35049,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G296" s="2" t="n">
-        <v>46023.00674635398</v>
+      <c r="G296" s="3" t="n">
+        <v>46023.00674635416</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -35164,8 +35166,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G297" s="2" t="n">
-        <v>46023.00761720628</v>
+      <c r="G297" s="3" t="n">
+        <v>46023.00761721065</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -35281,8 +35283,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G298" s="2" t="n">
-        <v>46023.00880332905</v>
+      <c r="G298" s="3" t="n">
+        <v>46023.00880333333</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -35398,8 +35400,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G299" s="2" t="n">
-        <v>46023.01149390364</v>
+      <c r="G299" s="3" t="n">
+        <v>46023.01149390046</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
@@ -35515,8 +35517,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G300" s="2" t="n">
-        <v>46023.01155168135</v>
+      <c r="G300" s="3" t="n">
+        <v>46023.01155167824</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -35632,8 +35634,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G301" s="2" t="n">
-        <v>46023.01269791178</v>
+      <c r="G301" s="3" t="n">
+        <v>46023.01269791667</v>
       </c>
       <c r="H301" t="inlineStr">
         <is>
@@ -35749,8 +35751,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G302" s="2" t="n">
-        <v>46023.01311412883</v>
+      <c r="G302" s="3" t="n">
+        <v>46023.01311413194</v>
       </c>
       <c r="H302" t="inlineStr">
         <is>
@@ -35866,8 +35868,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G303" s="2" t="n">
-        <v>46023.01661684184</v>
+      <c r="G303" s="3" t="n">
+        <v>46023.01661684028</v>
       </c>
       <c r="H303" t="inlineStr">
         <is>
@@ -35983,8 +35985,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G304" s="2" t="n">
-        <v>46023.01713781826</v>
+      <c r="G304" s="3" t="n">
+        <v>46023.0171378125</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -36100,8 +36102,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G305" s="2" t="n">
-        <v>46023.02020724734</v>
+      <c r="G305" s="3" t="n">
+        <v>46023.02020724537</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
@@ -36217,8 +36219,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G306" s="2" t="n">
-        <v>46023.02054853514</v>
+      <c r="G306" s="3" t="n">
+        <v>46023.02054853009</v>
       </c>
       <c r="H306" t="inlineStr">
         <is>
@@ -36334,8 +36336,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G307" s="2" t="n">
-        <v>46023.0219501051</v>
+      <c r="G307" s="3" t="n">
+        <v>46023.02195010416</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -36451,8 +36453,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G308" s="2" t="n">
-        <v>46023.02301457703</v>
+      <c r="G308" s="3" t="n">
+        <v>46023.02301457176</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -36568,8 +36570,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G309" s="2" t="n">
-        <v>46023.02427004834</v>
+      <c r="G309" s="3" t="n">
+        <v>46023.0242700463</v>
       </c>
       <c r="H309" t="inlineStr">
         <is>
@@ -36685,8 +36687,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G310" s="2" t="n">
-        <v>46023.02524174056</v>
+      <c r="G310" s="3" t="n">
+        <v>46023.02524173611</v>
       </c>
       <c r="H310" t="inlineStr">
         <is>
@@ -36802,8 +36804,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G311" s="2" t="n">
-        <v>46023.02784331396</v>
+      <c r="G311" s="3" t="n">
+        <v>46023.02784331018</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -36919,8 +36921,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G312" s="2" t="n">
-        <v>46023.03122211026</v>
+      <c r="G312" s="3" t="n">
+        <v>46023.03122210648</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -37036,8 +37038,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G313" s="2" t="n">
-        <v>46023.03241012869</v>
+      <c r="G313" s="3" t="n">
+        <v>46023.03241012731</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
@@ -37153,8 +37155,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G314" s="2" t="n">
-        <v>46023.03491260439</v>
+      <c r="G314" s="3" t="n">
+        <v>46023.03491260417</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -37270,8 +37272,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G315" s="2" t="n">
-        <v>46023.03928345817</v>
+      <c r="G315" s="3" t="n">
+        <v>46023.03928346065</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -37387,8 +37389,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G316" s="2" t="n">
-        <v>46023.00001205826</v>
+      <c r="G316" s="3" t="n">
+        <v>46023.00001206018</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -37504,8 +37506,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G317" s="2" t="n">
-        <v>46023.00005655692</v>
+      <c r="G317" s="3" t="n">
+        <v>46023.0000565625</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -37621,8 +37623,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G318" s="2" t="n">
-        <v>46023.00358047448</v>
+      <c r="G318" s="3" t="n">
+        <v>46023.00358047453</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -37738,8 +37740,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G319" s="2" t="n">
-        <v>46023.00723339772</v>
+      <c r="G319" s="3" t="n">
+        <v>46023.00723340278</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -37855,8 +37857,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G320" s="2" t="n">
-        <v>46023.00896388624</v>
+      <c r="G320" s="3" t="n">
+        <v>46023.00896388889</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -37972,8 +37974,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G321" s="2" t="n">
-        <v>46023.01110435479</v>
+      <c r="G321" s="3" t="n">
+        <v>46023.01110435186</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
@@ -38089,8 +38091,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G322" s="2" t="n">
-        <v>46023.01156482923</v>
+      <c r="G322" s="3" t="n">
+        <v>46023.01156482639</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
@@ -38206,8 +38208,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G323" s="2" t="n">
-        <v>46023.01370046984</v>
+      <c r="G323" s="3" t="n">
+        <v>46023.01370047453</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
@@ -38323,8 +38325,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G324" s="2" t="n">
-        <v>46023.01752720564</v>
+      <c r="G324" s="3" t="n">
+        <v>46023.01752721065</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
@@ -38440,8 +38442,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G325" s="2" t="n">
-        <v>46023.01990714909</v>
+      <c r="G325" s="3" t="n">
+        <v>46023.01990715277</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -38557,8 +38559,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G326" s="2" t="n">
-        <v>46023.0210966225</v>
+      <c r="G326" s="3" t="n">
+        <v>46023.02109662037</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -38674,8 +38676,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G327" s="2" t="n">
-        <v>46023.0233599417</v>
+      <c r="G327" s="3" t="n">
+        <v>46023.02335994213</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -38791,8 +38793,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G328" s="2" t="n">
-        <v>46023.02348276301</v>
+      <c r="G328" s="3" t="n">
+        <v>46023.02348276621</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
@@ -38908,8 +38910,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G329" s="2" t="n">
-        <v>46023.02797890548</v>
+      <c r="G329" s="3" t="n">
+        <v>46023.02797890046</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
@@ -39025,8 +39027,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G330" s="2" t="n">
-        <v>46023.03309702439</v>
+      <c r="G330" s="3" t="n">
+        <v>46023.03309702547</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
@@ -39142,8 +39144,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G331" s="2" t="n">
-        <v>46023.03602516591</v>
+      <c r="G331" s="3" t="n">
+        <v>46023.03602516204</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -39259,8 +39261,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G332" s="2" t="n">
-        <v>46023.03802404227</v>
+      <c r="G332" s="3" t="n">
+        <v>46023.03802403935</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -39376,8 +39378,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G333" s="2" t="n">
-        <v>46023.00040576551</v>
+      <c r="G333" s="3" t="n">
+        <v>46023.00040576389</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
@@ -39493,8 +39495,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G334" s="2" t="n">
-        <v>46023.00493947515</v>
+      <c r="G334" s="3" t="n">
+        <v>46023.00493947916</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
@@ -39610,8 +39612,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G335" s="2" t="n">
-        <v>46023.00517091895</v>
+      <c r="G335" s="3" t="n">
+        <v>46023.00517091435</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
@@ -39727,8 +39729,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G336" s="2" t="n">
-        <v>46023.00710506267</v>
+      <c r="G336" s="3" t="n">
+        <v>46023.00710505787</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
@@ -39844,8 +39846,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G337" s="2" t="n">
-        <v>46023.00869252447</v>
+      <c r="G337" s="3" t="n">
+        <v>46023.00869252315</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -39961,8 +39963,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G338" s="2" t="n">
-        <v>46023.01030478735</v>
+      <c r="G338" s="3" t="n">
+        <v>46023.01030479166</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
@@ -40078,8 +40080,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G339" s="2" t="n">
-        <v>46023.01277715973</v>
+      <c r="G339" s="3" t="n">
+        <v>46023.01277716435</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
@@ -40195,8 +40197,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G340" s="2" t="n">
-        <v>46023.01355937289</v>
+      <c r="G340" s="3" t="n">
+        <v>46023.013559375</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
@@ -40312,8 +40314,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G341" s="2" t="n">
-        <v>46023.01775839573</v>
+      <c r="G341" s="3" t="n">
+        <v>46023.0177583912</v>
       </c>
       <c r="H341" t="inlineStr">
         <is>
@@ -40429,8 +40431,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G342" s="2" t="n">
-        <v>46023.01960691375</v>
+      <c r="G342" s="3" t="n">
+        <v>46023.01960690972</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
@@ -40546,8 +40548,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G343" s="2" t="n">
-        <v>46023.02275578029</v>
+      <c r="G343" s="3" t="n">
+        <v>46023.02275577546</v>
       </c>
       <c r="H343" t="inlineStr">
         <is>
@@ -40663,8 +40665,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G344" s="2" t="n">
-        <v>46023.02515480461</v>
+      <c r="G344" s="3" t="n">
+        <v>46023.02515480324</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -40780,8 +40782,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G345" s="2" t="n">
-        <v>46023.02535595925</v>
+      <c r="G345" s="3" t="n">
+        <v>46023.02535596065</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
@@ -40897,8 +40899,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G346" s="2" t="n">
-        <v>46023.02569891463</v>
+      <c r="G346" s="3" t="n">
+        <v>46023.02569891204</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -41014,8 +41016,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G347" s="2" t="n">
-        <v>46023.02608245363</v>
+      <c r="G347" s="3" t="n">
+        <v>46023.0260824537</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
@@ -41131,8 +41133,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G348" s="2" t="n">
-        <v>46023.03299868703</v>
+      <c r="G348" s="3" t="n">
+        <v>46023.03299869213</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
@@ -41248,8 +41250,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G349" s="2" t="n">
-        <v>46023.00098504083</v>
+      <c r="G349" s="3" t="n">
+        <v>46023.0009850463</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
@@ -41365,8 +41367,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G350" s="2" t="n">
-        <v>46023.00419541765</v>
+      <c r="G350" s="3" t="n">
+        <v>46023.00419541667</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -41482,8 +41484,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G351" s="2" t="n">
-        <v>46023.00562084006</v>
+      <c r="G351" s="3" t="n">
+        <v>46023.00562084491</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -41599,8 +41601,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G352" s="2" t="n">
-        <v>46023.01082151409</v>
+      <c r="G352" s="3" t="n">
+        <v>46023.0108215162</v>
       </c>
       <c r="H352" t="inlineStr">
         <is>
@@ -41716,8 +41718,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G353" s="2" t="n">
-        <v>46023.01110729642</v>
+      <c r="G353" s="3" t="n">
+        <v>46023.01110729167</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -41833,8 +41835,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G354" s="2" t="n">
-        <v>46023.01117578932</v>
+      <c r="G354" s="3" t="n">
+        <v>46023.01117578704</v>
       </c>
       <c r="H354" t="inlineStr">
         <is>
@@ -41950,8 +41952,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G355" s="2" t="n">
-        <v>46023.01260869783</v>
+      <c r="G355" s="3" t="n">
+        <v>46023.01260869213</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
@@ -42067,8 +42069,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G356" s="2" t="n">
-        <v>46023.01297592241</v>
+      <c r="G356" s="3" t="n">
+        <v>46023.01297592593</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -42184,8 +42186,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G357" s="2" t="n">
-        <v>46023.01298337005</v>
+      <c r="G357" s="3" t="n">
+        <v>46023.01298336805</v>
       </c>
       <c r="H357" t="inlineStr">
         <is>
@@ -42301,8 +42303,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G358" s="2" t="n">
-        <v>46023.01586010762</v>
+      <c r="G358" s="3" t="n">
+        <v>46023.01586010417</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -42418,8 +42420,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G359" s="2" t="n">
-        <v>46023.01597504505</v>
+      <c r="G359" s="3" t="n">
+        <v>46023.0159750463</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
@@ -42535,8 +42537,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G360" s="2" t="n">
-        <v>46023.01942671462</v>
+      <c r="G360" s="3" t="n">
+        <v>46023.01942671296</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -42652,8 +42654,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G361" s="2" t="n">
-        <v>46023.0204041681</v>
+      <c r="G361" s="3" t="n">
+        <v>46023.02040416667</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
@@ -42769,8 +42771,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G362" s="2" t="n">
-        <v>46023.02089569657</v>
+      <c r="G362" s="3" t="n">
+        <v>46023.02089569445</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -42886,8 +42888,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G363" s="2" t="n">
-        <v>46023.02098685806</v>
+      <c r="G363" s="3" t="n">
+        <v>46023.02098686343</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -43003,8 +43005,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G364" s="2" t="n">
-        <v>46023.02297144102</v>
+      <c r="G364" s="3" t="n">
+        <v>46023.02297144676</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -43120,8 +43122,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G365" s="2" t="n">
-        <v>46023.02350328527</v>
+      <c r="G365" s="3" t="n">
+        <v>46023.02350328704</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -43237,8 +43239,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G366" s="2" t="n">
-        <v>46023.02394414855</v>
+      <c r="G366" s="3" t="n">
+        <v>46023.02394414352</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -43354,8 +43356,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G367" s="2" t="n">
-        <v>46023.02806895655</v>
+      <c r="G367" s="3" t="n">
+        <v>46023.02806895833</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -43471,8 +43473,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G368" s="2" t="n">
-        <v>46023.02857138449</v>
+      <c r="G368" s="3" t="n">
+        <v>46023.02857138889</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
@@ -43588,8 +43590,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G369" s="2" t="n">
-        <v>46023.03343489237</v>
+      <c r="G369" s="3" t="n">
+        <v>46023.03343489583</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
@@ -43705,8 +43707,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G370" s="2" t="n">
-        <v>46023.03437709445</v>
+      <c r="G370" s="3" t="n">
+        <v>46023.0343770949</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -43822,8 +43824,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G371" s="2" t="n">
-        <v>46023.03462485947</v>
+      <c r="G371" s="3" t="n">
+        <v>46023.03462486111</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -43939,8 +43941,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G372" s="2" t="n">
-        <v>46023.03840868424</v>
+      <c r="G372" s="3" t="n">
+        <v>46023.03840868056</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -44056,8 +44058,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G373" s="2" t="n">
-        <v>46023.03864419446</v>
+      <c r="G373" s="3" t="n">
+        <v>46023.03864418982</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -44173,8 +44175,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G374" s="2" t="n">
-        <v>46023.04132558686</v>
+      <c r="G374" s="3" t="n">
+        <v>46023.04132559027</v>
       </c>
       <c r="H374" t="inlineStr">
         <is>
@@ -44290,8 +44292,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G375" s="2" t="n">
-        <v>46023.04147103339</v>
+      <c r="G375" s="3" t="n">
+        <v>46023.04147103009</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -44407,8 +44409,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G376" s="2" t="n">
-        <v>46023.00187961273</v>
+      <c r="G376" s="3" t="n">
+        <v>46023.00187961805</v>
       </c>
       <c r="H376" t="inlineStr">
         <is>
@@ -44524,8 +44526,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G377" s="2" t="n">
-        <v>46023.00589416809</v>
+      <c r="G377" s="3" t="n">
+        <v>46023.00589416666</v>
       </c>
       <c r="H377" t="inlineStr">
         <is>
@@ -44641,8 +44643,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G378" s="2" t="n">
-        <v>46023.00727363766</v>
+      <c r="G378" s="3" t="n">
+        <v>46023.00727363426</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
@@ -44758,8 +44760,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G379" s="2" t="n">
-        <v>46023.00928916049</v>
+      <c r="G379" s="3" t="n">
+        <v>46023.0092891551</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
@@ -44875,8 +44877,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G380" s="2" t="n">
-        <v>46023.01055701538</v>
+      <c r="G380" s="3" t="n">
+        <v>46023.01055701389</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
@@ -44992,8 +44994,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G381" s="2" t="n">
-        <v>46023.01063726272</v>
+      <c r="G381" s="3" t="n">
+        <v>46023.01063725694</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
@@ -45109,8 +45111,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G382" s="2" t="n">
-        <v>46023.01274142224</v>
+      <c r="G382" s="3" t="n">
+        <v>46023.01274142361</v>
       </c>
       <c r="H382" t="inlineStr">
         <is>
@@ -45226,8 +45228,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G383" s="2" t="n">
-        <v>46023.01543354314</v>
+      <c r="G383" s="3" t="n">
+        <v>46023.01543354167</v>
       </c>
       <c r="H383" t="inlineStr">
         <is>
@@ -45343,8 +45345,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G384" s="2" t="n">
-        <v>46023.01747584301</v>
+      <c r="G384" s="3" t="n">
+        <v>46023.01747584491</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -45460,8 +45462,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G385" s="2" t="n">
-        <v>46023.01806201629</v>
+      <c r="G385" s="3" t="n">
+        <v>46023.01806201389</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -45577,8 +45579,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G386" s="2" t="n">
-        <v>46023.02097190205</v>
+      <c r="G386" s="3" t="n">
+        <v>46023.02097189815</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -45694,8 +45696,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G387" s="2" t="n">
-        <v>46023.02111697625</v>
+      <c r="G387" s="3" t="n">
+        <v>46023.02111697917</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -45811,8 +45813,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G388" s="2" t="n">
-        <v>46023.02516004592</v>
+      <c r="G388" s="3" t="n">
+        <v>46023.02516004629</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -45928,8 +45930,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G389" s="2" t="n">
-        <v>46023.02542366929</v>
+      <c r="G389" s="3" t="n">
+        <v>46023.02542366898</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -46045,8 +46047,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G390" s="2" t="n">
-        <v>46023.02550944391</v>
+      <c r="G390" s="3" t="n">
+        <v>46023.02550944444</v>
       </c>
       <c r="H390" t="inlineStr">
         <is>
@@ -46162,8 +46164,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G391" s="2" t="n">
-        <v>46023.02631212169</v>
+      <c r="G391" s="3" t="n">
+        <v>46023.02631211805</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -46279,8 +46281,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G392" s="2" t="n">
-        <v>46023.0306597283</v>
+      <c r="G392" s="3" t="n">
+        <v>46023.0306597338</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
@@ -46396,8 +46398,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G393" s="2" t="n">
-        <v>46023.03284965589</v>
+      <c r="G393" s="3" t="n">
+        <v>46023.03284965278</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
@@ -46513,8 +46515,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G394" s="2" t="n">
-        <v>46023.03426730893</v>
+      <c r="G394" s="3" t="n">
+        <v>46023.03426730324</v>
       </c>
       <c r="H394" t="inlineStr">
         <is>
@@ -46630,8 +46632,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G395" s="2" t="n">
-        <v>46023.03511665589</v>
+      <c r="G395" s="3" t="n">
+        <v>46023.03511665509</v>
       </c>
       <c r="H395" t="inlineStr">
         <is>
@@ -46747,8 +46749,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G396" s="2" t="n">
-        <v>46023.0353197462</v>
+      <c r="G396" s="3" t="n">
+        <v>46023.03531974537</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -46864,8 +46866,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G397" s="2" t="n">
-        <v>46023.03674519147</v>
+      <c r="G397" s="3" t="n">
+        <v>46023.03674519676</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -46981,8 +46983,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G398" s="2" t="n">
-        <v>46023.03696619489</v>
+      <c r="G398" s="3" t="n">
+        <v>46023.03696619213</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -47098,8 +47100,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G399" s="2" t="n">
-        <v>46023.00070840516</v>
+      <c r="G399" s="3" t="n">
+        <v>46023.00070840277</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -47215,8 +47217,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G400" s="2" t="n">
-        <v>46023.00341345502</v>
+      <c r="G400" s="3" t="n">
+        <v>46023.00341346065</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -47332,8 +47334,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G401" s="2" t="n">
-        <v>46023.00359601188</v>
+      <c r="G401" s="3" t="n">
+        <v>46023.00359600694</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -47449,8 +47451,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G402" s="2" t="n">
-        <v>46023.00477611253</v>
+      <c r="G402" s="3" t="n">
+        <v>46023.00477611111</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -47566,8 +47568,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G403" s="2" t="n">
-        <v>46023.00499494772</v>
+      <c r="G403" s="3" t="n">
+        <v>46023.00499494213</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
@@ -47683,8 +47685,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G404" s="2" t="n">
-        <v>46023.00649949312</v>
+      <c r="G404" s="3" t="n">
+        <v>46023.00649949074</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
@@ -47800,8 +47802,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G405" s="2" t="n">
-        <v>46023.00669495614</v>
+      <c r="G405" s="3" t="n">
+        <v>46023.00669495371</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
@@ -47917,8 +47919,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G406" s="2" t="n">
-        <v>46023.00744475127</v>
+      <c r="G406" s="3" t="n">
+        <v>46023.00744475694</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -48034,8 +48036,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G407" s="2" t="n">
-        <v>46023.00857644086</v>
+      <c r="G407" s="3" t="n">
+        <v>46023.00857643518</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -48151,8 +48153,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G408" s="2" t="n">
-        <v>46023.00919232755</v>
+      <c r="G408" s="3" t="n">
+        <v>46023.00919232639</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
@@ -48268,8 +48270,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G409" s="2" t="n">
-        <v>46023.00992208512</v>
+      <c r="G409" s="3" t="n">
+        <v>46023.00992208334</v>
       </c>
       <c r="H409" t="inlineStr">
         <is>
@@ -48385,8 +48387,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G410" s="2" t="n">
-        <v>46023.01099491117</v>
+      <c r="G410" s="3" t="n">
+        <v>46023.01099490741</v>
       </c>
       <c r="H410" t="inlineStr">
         <is>
@@ -48502,8 +48504,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G411" s="2" t="n">
-        <v>46023.01211866227</v>
+      <c r="G411" s="3" t="n">
+        <v>46023.01211865741</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
@@ -48619,8 +48621,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G412" s="2" t="n">
-        <v>46023.01373959416</v>
+      <c r="G412" s="3" t="n">
+        <v>46023.01373959491</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
@@ -48736,8 +48738,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G413" s="2" t="n">
-        <v>46023.0150424694</v>
+      <c r="G413" s="3" t="n">
+        <v>46023.01504246527</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
@@ -48853,8 +48855,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G414" s="2" t="n">
-        <v>46023.02205377808</v>
+      <c r="G414" s="3" t="n">
+        <v>46023.02205377315</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
@@ -48970,8 +48972,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G415" s="2" t="n">
-        <v>46023.02363336959</v>
+      <c r="G415" s="3" t="n">
+        <v>46023.02363336806</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
@@ -49087,8 +49089,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G416" s="2" t="n">
-        <v>46023.02436062074</v>
+      <c r="G416" s="3" t="n">
+        <v>46023.024360625</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
@@ -49204,8 +49206,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G417" s="2" t="n">
-        <v>46023.02463271696</v>
+      <c r="G417" s="3" t="n">
+        <v>46023.02463271991</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
@@ -49321,8 +49323,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G418" s="2" t="n">
-        <v>46023.03372190031</v>
+      <c r="G418" s="3" t="n">
+        <v>46023.03372189815</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -49438,8 +49440,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G419" s="2" t="n">
-        <v>46023.03394353189</v>
+      <c r="G419" s="3" t="n">
+        <v>46023.03394353009</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
@@ -49555,8 +49557,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G420" s="2" t="n">
-        <v>46023.03479744611</v>
+      <c r="G420" s="3" t="n">
+        <v>46023.03479744213</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -49672,8 +49674,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G421" s="2" t="n">
-        <v>46023.03516966583</v>
+      <c r="G421" s="3" t="n">
+        <v>46023.03516966435</v>
       </c>
       <c r="H421" t="inlineStr">
         <is>
@@ -49789,8 +49791,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G422" s="2" t="n">
-        <v>46023.03563349698</v>
+      <c r="G422" s="3" t="n">
+        <v>46023.03563349537</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
@@ -49906,8 +49908,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G423" s="2" t="n">
-        <v>46023.00201578416</v>
+      <c r="G423" s="3" t="n">
+        <v>46023.00201578704</v>
       </c>
       <c r="H423" t="inlineStr">
         <is>
@@ -50023,8 +50025,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G424" s="2" t="n">
-        <v>46023.0038390804</v>
+      <c r="G424" s="3" t="n">
+        <v>46023.00383908565</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
@@ -50140,8 +50142,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G425" s="2" t="n">
-        <v>46023.00613474506</v>
+      <c r="G425" s="3" t="n">
+        <v>46023.00613474537</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
@@ -50257,8 +50259,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G426" s="2" t="n">
-        <v>46023.00617547316</v>
+      <c r="G426" s="3" t="n">
+        <v>46023.00617547454</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
@@ -50374,8 +50376,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G427" s="2" t="n">
-        <v>46023.0066949042</v>
+      <c r="G427" s="3" t="n">
+        <v>46023.00669490741</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
@@ -50491,8 +50493,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G428" s="2" t="n">
-        <v>46023.00918632649</v>
+      <c r="G428" s="3" t="n">
+        <v>46023.00918633102</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
@@ -50608,8 +50610,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G429" s="2" t="n">
-        <v>46023.0105628832</v>
+      <c r="G429" s="3" t="n">
+        <v>46023.01056288194</v>
       </c>
       <c r="H429" t="inlineStr">
         <is>
@@ -50725,8 +50727,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G430" s="2" t="n">
-        <v>46023.01398767084</v>
+      <c r="G430" s="3" t="n">
+        <v>46023.01398767361</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
@@ -50842,8 +50844,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G431" s="2" t="n">
-        <v>46023.0146806006</v>
+      <c r="G431" s="3" t="n">
+        <v>46023.01468060185</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
@@ -50959,8 +50961,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G432" s="2" t="n">
-        <v>46023.01898217499</v>
+      <c r="G432" s="3" t="n">
+        <v>46023.01898217593</v>
       </c>
       <c r="H432" t="inlineStr">
         <is>
@@ -51076,8 +51078,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G433" s="2" t="n">
-        <v>46023.02258331154</v>
+      <c r="G433" s="3" t="n">
+        <v>46023.02258331019</v>
       </c>
       <c r="H433" t="inlineStr">
         <is>
@@ -51193,8 +51195,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G434" s="2" t="n">
-        <v>46023.02363881764</v>
+      <c r="G434" s="3" t="n">
+        <v>46023.02363881945</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
@@ -51310,8 +51312,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G435" s="2" t="n">
-        <v>46023.0331893668</v>
+      <c r="G435" s="3" t="n">
+        <v>46023.03318936343</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
@@ -51427,8 +51429,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G436" s="2" t="n">
-        <v>46023.03528891483</v>
+      <c r="G436" s="3" t="n">
+        <v>46023.03528891204</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
@@ -51544,8 +51546,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G437" s="2" t="n">
-        <v>46023.03721332143</v>
+      <c r="G437" s="3" t="n">
+        <v>46023.03721332176</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
@@ -51661,8 +51663,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G438" s="2" t="n">
-        <v>46023.03723484775</v>
+      <c r="G438" s="3" t="n">
+        <v>46023.03723484954</v>
       </c>
       <c r="H438" t="inlineStr">
         <is>
@@ -51778,8 +51780,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G439" s="2" t="n">
-        <v>46023.03780834211</v>
+      <c r="G439" s="3" t="n">
+        <v>46023.03780834491</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
@@ -51895,8 +51897,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G440" s="2" t="n">
-        <v>46023.04094543163</v>
+      <c r="G440" s="3" t="n">
+        <v>46023.04094542824</v>
       </c>
       <c r="H440" t="inlineStr">
         <is>
@@ -52012,8 +52014,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G441" s="2" t="n">
-        <v>46023.00077649298</v>
+      <c r="G441" s="3" t="n">
+        <v>46023.00077649306</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
@@ -52129,8 +52131,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G442" s="2" t="n">
-        <v>46023.00339279915</v>
+      <c r="G442" s="3" t="n">
+        <v>46023.00339280093</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
@@ -52246,8 +52248,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G443" s="2" t="n">
-        <v>46023.00422756263</v>
+      <c r="G443" s="3" t="n">
+        <v>46023.00422755787</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
@@ -52363,8 +52365,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G444" s="2" t="n">
-        <v>46023.00718918016</v>
+      <c r="G444" s="3" t="n">
+        <v>46023.00718917824</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
@@ -52480,8 +52482,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G445" s="2" t="n">
-        <v>46023.00920115142</v>
+      <c r="G445" s="3" t="n">
+        <v>46023.00920114583</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
@@ -52597,8 +52599,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G446" s="2" t="n">
-        <v>46023.01017342936</v>
+      <c r="G446" s="3" t="n">
+        <v>46023.01017342592</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
@@ -52714,8 +52716,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G447" s="2" t="n">
-        <v>46023.01262937962</v>
+      <c r="G447" s="3" t="n">
+        <v>46023.012629375</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
@@ -52831,8 +52833,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G448" s="2" t="n">
-        <v>46023.01318006987</v>
+      <c r="G448" s="3" t="n">
+        <v>46023.01318006944</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
@@ -52948,8 +52950,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G449" s="2" t="n">
-        <v>46023.01381586787</v>
+      <c r="G449" s="3" t="n">
+        <v>46023.01381586806</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
@@ -53065,8 +53067,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G450" s="2" t="n">
-        <v>46023.01544157651</v>
+      <c r="G450" s="3" t="n">
+        <v>46023.01544157408</v>
       </c>
       <c r="H450" t="inlineStr">
         <is>
@@ -53182,8 +53184,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G451" s="2" t="n">
-        <v>46023.01686952636</v>
+      <c r="G451" s="3" t="n">
+        <v>46023.01686952546</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
@@ -53299,8 +53301,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G452" s="2" t="n">
-        <v>46023.0214546413</v>
+      <c r="G452" s="3" t="n">
+        <v>46023.0214546412</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
@@ -53416,8 +53418,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G453" s="2" t="n">
-        <v>46023.02188077584</v>
+      <c r="G453" s="3" t="n">
+        <v>46023.02188077546</v>
       </c>
       <c r="H453" t="inlineStr">
         <is>
@@ -53533,8 +53535,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G454" s="2" t="n">
-        <v>46023.03064233163</v>
+      <c r="G454" s="3" t="n">
+        <v>46023.03064232639</v>
       </c>
       <c r="H454" t="inlineStr">
         <is>
@@ -53650,8 +53652,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G455" s="2" t="n">
-        <v>46023.03093388915</v>
+      <c r="G455" s="3" t="n">
+        <v>46023.03093388889</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
@@ -53767,8 +53769,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G456" s="2" t="n">
-        <v>46023.03253062465</v>
+      <c r="G456" s="3" t="n">
+        <v>46023.032530625</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -53884,8 +53886,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G457" s="2" t="n">
-        <v>46023.03253383389</v>
+      <c r="G457" s="3" t="n">
+        <v>46023.03253383102</v>
       </c>
       <c r="H457" t="inlineStr">
         <is>
@@ -54001,8 +54003,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G458" s="2" t="n">
-        <v>46023.03280820751</v>
+      <c r="G458" s="3" t="n">
+        <v>46023.03280820602</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -54118,8 +54120,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G459" s="2" t="n">
-        <v>46023.03312473057</v>
+      <c r="G459" s="3" t="n">
+        <v>46023.0331247338</v>
       </c>
       <c r="H459" t="inlineStr">
         <is>
@@ -54235,8 +54237,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G460" s="2" t="n">
-        <v>46023.03542717302</v>
+      <c r="G460" s="3" t="n">
+        <v>46023.03542717593</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
@@ -54352,8 +54354,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G461" s="2" t="n">
-        <v>46023.03621343704</v>
+      <c r="G461" s="3" t="n">
+        <v>46023.0362134375</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
@@ -54469,8 +54471,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G462" s="2" t="n">
-        <v>46023.03672861417</v>
+      <c r="G462" s="3" t="n">
+        <v>46023.03672861111</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
@@ -54586,8 +54588,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G463" s="2" t="n">
-        <v>46023.03764639395</v>
+      <c r="G463" s="3" t="n">
+        <v>46023.03764638889</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
@@ -54703,8 +54705,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G464" s="2" t="n">
-        <v>46023.04081082268</v>
+      <c r="G464" s="3" t="n">
+        <v>46023.04081082176</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
@@ -54820,8 +54822,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G465" s="2" t="n">
-        <v>46023.00097701995</v>
+      <c r="G465" s="3" t="n">
+        <v>46023.00097702546</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
@@ -54937,8 +54939,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G466" s="2" t="n">
-        <v>46023.00126827981</v>
+      <c r="G466" s="3" t="n">
+        <v>46023.00126827546</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
@@ -55054,8 +55056,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G467" s="2" t="n">
-        <v>46023.00294219146</v>
+      <c r="G467" s="3" t="n">
+        <v>46023.0029421875</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -55171,8 +55173,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G468" s="2" t="n">
-        <v>46023.0049522671</v>
+      <c r="G468" s="3" t="n">
+        <v>46023.00495226851</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
@@ -55288,8 +55290,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G469" s="2" t="n">
-        <v>46023.01113257339</v>
+      <c r="G469" s="3" t="n">
+        <v>46023.01113256945</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
@@ -55405,8 +55407,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G470" s="2" t="n">
-        <v>46023.01338826166</v>
+      <c r="G470" s="3" t="n">
+        <v>46023.01338826389</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
@@ -55522,8 +55524,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G471" s="2" t="n">
-        <v>46023.01782999656</v>
+      <c r="G471" s="3" t="n">
+        <v>46023.01783</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
@@ -55639,8 +55641,8 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="G472" s="2" t="n">
-        <v>46023.02076233934</v>
+      <c r="G472" s="3" t="n">
+        <v>46023.02076233796</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
@@ -55756,8 +55758,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G473" s="2" t="n">
-        <v>46023.02130464354</v>
+      <c r="G473" s="3" t="n">
+        <v>46023.0213046412</v>
       </c>
       <c r="H473" t="inlineStr">
         <is>
@@ -55873,8 +55875,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G474" s="2" t="n">
-        <v>46023.02450802215</v>
+      <c r="G474" s="3" t="n">
+        <v>46023.02450802083</v>
       </c>
       <c r="H474" t="inlineStr">
         <is>
@@ -55990,8 +55992,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G475" s="2" t="n">
-        <v>46023.02572384937</v>
+      <c r="G475" s="3" t="n">
+        <v>46023.02572385417</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
@@ -56107,8 +56109,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G476" s="2" t="n">
-        <v>46023.03017788163</v>
+      <c r="G476" s="3" t="n">
+        <v>46023.03017788194</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
@@ -56224,8 +56226,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G477" s="2" t="n">
-        <v>46023.03236249183</v>
+      <c r="G477" s="3" t="n">
+        <v>46023.03236248843</v>
       </c>
       <c r="H477" t="inlineStr">
         <is>
@@ -56341,8 +56343,8 @@
           <t>Lob</t>
         </is>
       </c>
-      <c r="G478" s="2" t="n">
-        <v>46023.03492319256</v>
+      <c r="G478" s="3" t="n">
+        <v>46023.03492319444</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
@@ -56458,8 +56460,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G479" s="2" t="n">
-        <v>46023.03710165611</v>
+      <c r="G479" s="3" t="n">
+        <v>46023.03710165509</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
@@ -56575,8 +56577,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G480" s="2" t="n">
-        <v>46023.03997683724</v>
+      <c r="G480" s="3" t="n">
+        <v>46023.03997684028</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
@@ -56692,8 +56694,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G481" s="2" t="n">
-        <v>46023.00134419819</v>
+      <c r="G481" s="3" t="n">
+        <v>46023.00134420139</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
@@ -56809,8 +56811,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G482" s="2" t="n">
-        <v>46023.00174172175</v>
+      <c r="G482" s="3" t="n">
+        <v>46023.00174172454</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
@@ -56926,8 +56928,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G483" s="2" t="n">
-        <v>46023.00195136701</v>
+      <c r="G483" s="3" t="n">
+        <v>46023.00195136574</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
@@ -57043,8 +57045,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G484" s="2" t="n">
-        <v>46023.00363996057</v>
+      <c r="G484" s="3" t="n">
+        <v>46023.00363996527</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
@@ -57160,8 +57162,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G485" s="2" t="n">
-        <v>46023.00492124438</v>
+      <c r="G485" s="3" t="n">
+        <v>46023.00492125</v>
       </c>
       <c r="H485" t="inlineStr">
         <is>
@@ -57277,8 +57279,8 @@
           <t>Jump</t>
         </is>
       </c>
-      <c r="G486" s="2" t="n">
-        <v>46023.00594723794</v>
+      <c r="G486" s="3" t="n">
+        <v>46023.0059472338</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
@@ -57394,8 +57396,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G487" s="2" t="n">
-        <v>46023.00659833464</v>
+      <c r="G487" s="3" t="n">
+        <v>46023.00659833333</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
@@ -57511,8 +57513,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G488" s="2" t="n">
-        <v>46023.01021510277</v>
+      <c r="G488" s="3" t="n">
+        <v>46023.01021510416</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
@@ -57628,8 +57630,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G489" s="2" t="n">
-        <v>46023.01096876493</v>
+      <c r="G489" s="3" t="n">
+        <v>46023.01096876158</v>
       </c>
       <c r="H489" t="inlineStr">
         <is>
@@ -57745,8 +57747,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G490" s="2" t="n">
-        <v>46023.01281236558</v>
+      <c r="G490" s="3" t="n">
+        <v>46023.01281236111</v>
       </c>
       <c r="H490" t="inlineStr">
         <is>
@@ -57862,8 +57864,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G491" s="2" t="n">
-        <v>46023.01312956513</v>
+      <c r="G491" s="3" t="n">
+        <v>46023.01312956018</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
@@ -57979,8 +57981,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G492" s="2" t="n">
-        <v>46023.01565736865</v>
+      <c r="G492" s="3" t="n">
+        <v>46023.01565737269</v>
       </c>
       <c r="H492" t="inlineStr">
         <is>
@@ -58096,8 +58098,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G493" s="2" t="n">
-        <v>46023.01732181808</v>
+      <c r="G493" s="3" t="n">
+        <v>46023.01732181713</v>
       </c>
       <c r="H493" t="inlineStr">
         <is>
@@ -58213,8 +58215,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G494" s="2" t="n">
-        <v>46023.01985812429</v>
+      <c r="G494" s="3" t="n">
+        <v>46023.019858125</v>
       </c>
       <c r="H494" t="inlineStr">
         <is>
@@ -58330,8 +58332,8 @@
           <t>Underarm</t>
         </is>
       </c>
-      <c r="G495" s="2" t="n">
-        <v>46023.02046199812</v>
+      <c r="G495" s="3" t="n">
+        <v>46023.02046200231</v>
       </c>
       <c r="H495" t="inlineStr">
         <is>
@@ -58447,8 +58449,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G496" s="2" t="n">
-        <v>46023.02461378655</v>
+      <c r="G496" s="3" t="n">
+        <v>46023.02461378472</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
@@ -58564,8 +58566,8 @@
           <t>Dive</t>
         </is>
       </c>
-      <c r="G497" s="2" t="n">
-        <v>46023.02672863629</v>
+      <c r="G497" s="3" t="n">
+        <v>46023.02672863426</v>
       </c>
       <c r="H497" t="inlineStr">
         <is>
@@ -58681,8 +58683,8 @@
           <t>Wing</t>
         </is>
       </c>
-      <c r="G498" s="2" t="n">
-        <v>46023.02803756395</v>
+      <c r="G498" s="3" t="n">
+        <v>46023.02803756944</v>
       </c>
       <c r="H498" t="inlineStr">
         <is>
@@ -58798,8 +58800,8 @@
           <t>Hip</t>
         </is>
       </c>
-      <c r="G499" s="2" t="n">
-        <v>46023.02858759451</v>
+      <c r="G499" s="3" t="n">
+        <v>46023.02858759259</v>
       </c>
       <c r="H499" t="inlineStr">
         <is>
@@ -58915,8 +58917,8 @@
           <t>Standing</t>
         </is>
       </c>
-      <c r="G500" s="2" t="n">
-        <v>46023.04088345238</v>
+      <c r="G500" s="3" t="n">
+        <v>46023.04088344907</v>
       </c>
       <c r="H500" t="inlineStr">
         <is>
@@ -59032,8 +59034,8 @@
           <t>Spin</t>
         </is>
       </c>
-      <c r="G501" s="2" t="n">
-        <v>46023.04121622155</v>
+      <c r="G501" s="3" t="n">
+        <v>46023.04121622685</v>
       </c>
       <c r="H501" t="inlineStr">
         <is>
@@ -60298,4 +60300,549 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>injury_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>injury_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>body_part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>duration_days</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>recurrence_of</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Shoulder sprain</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Shoulder</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>45692</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Back pain</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>45693</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>45698</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wrist sprain</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wrist/Hand</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>45699</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>45708</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wrist sprain</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wrist/Hand</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>45730</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Concussion</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>45712</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>45742</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hamstring strain</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hamstring</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>45752</v>
+      </c>
+      <c r="H7" t="n">
+        <v>76</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ankle sprain</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ankle/Foot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>45753</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>45760</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ankle sprain</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ankle/Foot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>45761</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>45768</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hamstring strain</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hamstring</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>45776</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Back pain</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>45709</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Calf strain</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Calf</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>45715</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>45729</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hamstring strain</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hamstring</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>45730</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>45739</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Back pain</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>45740</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>45748</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>